--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st04.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st04.xlsx
@@ -644,7 +644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]    Go on, Cronin. But make sure to also tell them what you did when I was "out on business." Tell them everything.
+    <t xml:space="preserve">[name="???"]    Go on, Cronin. But make sure to also tell them what you did when I was 'out on business.' Tell them everything.
 </t>
   </si>
   <si>
@@ -720,7 +720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cronin"]   Or, should I say, "annexed?" Yes, the way you annexed the Tarak Tribe. I know all about these things.
+    <t xml:space="preserve">[name="Cronin"]   Or, should I say, 'annexed?' Yes, the way you annexed the Tarak Tribe. I know all about these things.
 </t>
   </si>
   <si>
@@ -920,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]    크로닌,  하지만 내가 '업무차 출장을 나갔을 때' 무슨 짓을 하고 다녔는지도 전부 말해야 할 거다.
+    <t xml:space="preserve">[name="???"]    크로닌,  하지만 내가 '업무차 외근을 나갔을 때' 무슨 짓을 하고 다녔는지도 전부 말해야 할 거다.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st04.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st04.xlsx
@@ -648,7 +648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceylon"]   F-Father…?!
+    <t xml:space="preserve">[name="Ceylon"]   F-Father...?!
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cronin"]   Ahahahahaha! You senile fool, I wouldn’t be so sure about that!
+    <t xml:space="preserve">[name="Cronin"]   Ahahahahaha! You senile fool, I wouldn't be so sure about that!
 </t>
   </si>
   <si>
